--- a/ProductBacklog/Product-Backlog.xlsx
+++ b/ProductBacklog/Product-Backlog.xlsx
@@ -630,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G23"/>
+  <dimension ref="B2:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,7 +690,9 @@
       <c r="D5" s="12">
         <v>4</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="12">
+        <v>5</v>
+      </c>
       <c r="F5" s="13" t="s">
         <v>8</v>
       </c>
@@ -708,7 +710,9 @@
       <c r="D6" s="16">
         <v>1</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="17">
+        <v>28</v>
+      </c>
       <c r="F6" s="13" t="s">
         <v>11</v>
       </c>
@@ -723,7 +727,9 @@
       <c r="D7" s="16">
         <v>2</v>
       </c>
-      <c r="E7" s="17"/>
+      <c r="E7" s="17">
+        <v>10</v>
+      </c>
       <c r="F7" s="13" t="s">
         <v>8</v>
       </c>
@@ -738,7 +744,9 @@
       <c r="D8" s="16">
         <v>2</v>
       </c>
-      <c r="E8" s="17"/>
+      <c r="E8" s="17">
+        <v>5</v>
+      </c>
       <c r="F8" s="13" t="s">
         <v>8</v>
       </c>
@@ -753,7 +761,9 @@
       <c r="D9" s="16">
         <v>2</v>
       </c>
-      <c r="E9" s="17"/>
+      <c r="E9" s="17">
+        <v>5</v>
+      </c>
       <c r="F9" s="13" t="s">
         <v>8</v>
       </c>
@@ -768,7 +778,9 @@
       <c r="D10" s="16">
         <v>2</v>
       </c>
-      <c r="E10" s="17"/>
+      <c r="E10" s="17">
+        <v>5</v>
+      </c>
       <c r="F10" s="13" t="s">
         <v>8</v>
       </c>
@@ -783,7 +795,9 @@
       <c r="D11" s="16">
         <v>1</v>
       </c>
-      <c r="E11" s="17"/>
+      <c r="E11" s="17">
+        <v>20</v>
+      </c>
       <c r="F11" s="13" t="s">
         <v>11</v>
       </c>
@@ -798,7 +812,9 @@
       <c r="D12" s="16">
         <v>3</v>
       </c>
-      <c r="E12" s="17"/>
+      <c r="E12" s="17">
+        <v>24</v>
+      </c>
       <c r="F12" s="13" t="s">
         <v>8</v>
       </c>
@@ -813,7 +829,9 @@
       <c r="D13" s="16">
         <v>3</v>
       </c>
-      <c r="E13" s="17"/>
+      <c r="E13" s="17">
+        <v>10</v>
+      </c>
       <c r="F13" s="13" t="s">
         <v>8</v>
       </c>
@@ -828,7 +846,9 @@
       <c r="D14" s="16">
         <v>3</v>
       </c>
-      <c r="E14" s="17"/>
+      <c r="E14" s="17">
+        <v>5</v>
+      </c>
       <c r="F14" s="13" t="s">
         <v>8</v>
       </c>
@@ -843,7 +863,9 @@
       <c r="D15" s="16">
         <v>4</v>
       </c>
-      <c r="E15" s="17"/>
+      <c r="E15" s="17">
+        <v>10</v>
+      </c>
       <c r="F15" s="13" t="s">
         <v>8</v>
       </c>
@@ -858,7 +880,9 @@
       <c r="D16" s="16">
         <v>4</v>
       </c>
-      <c r="E16" s="17"/>
+      <c r="E16" s="17">
+        <v>5</v>
+      </c>
       <c r="F16" s="13" t="s">
         <v>8</v>
       </c>
@@ -873,7 +897,9 @@
       <c r="D17" s="16">
         <v>5</v>
       </c>
-      <c r="E17" s="17"/>
+      <c r="E17" s="17">
+        <v>20</v>
+      </c>
       <c r="F17" s="13" t="s">
         <v>8</v>
       </c>
@@ -888,7 +914,9 @@
       <c r="D18" s="16">
         <v>5</v>
       </c>
-      <c r="E18" s="17"/>
+      <c r="E18" s="17">
+        <v>5</v>
+      </c>
       <c r="F18" s="13" t="s">
         <v>8</v>
       </c>
@@ -903,7 +931,9 @@
       <c r="D19" s="16">
         <v>6</v>
       </c>
-      <c r="E19" s="17"/>
+      <c r="E19" s="17">
+        <v>20</v>
+      </c>
       <c r="F19" s="13" t="s">
         <v>8</v>
       </c>
@@ -918,7 +948,9 @@
       <c r="D20" s="16">
         <v>4</v>
       </c>
-      <c r="E20" s="17"/>
+      <c r="E20" s="17">
+        <v>20</v>
+      </c>
       <c r="F20" s="13" t="s">
         <v>8</v>
       </c>
@@ -933,7 +965,9 @@
       <c r="D21" s="16">
         <v>6</v>
       </c>
-      <c r="E21" s="17"/>
+      <c r="E21" s="17">
+        <v>10</v>
+      </c>
       <c r="F21" s="13" t="s">
         <v>8</v>
       </c>
@@ -948,7 +982,9 @@
       <c r="D22" s="16">
         <v>6</v>
       </c>
-      <c r="E22" s="17"/>
+      <c r="E22" s="17">
+        <v>5</v>
+      </c>
       <c r="F22" s="13" t="s">
         <v>8</v>
       </c>
@@ -963,9 +999,17 @@
       <c r="D23" s="20">
         <v>7</v>
       </c>
-      <c r="E23" s="21"/>
+      <c r="E23" s="21">
+        <v>5</v>
+      </c>
       <c r="F23" s="22" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <f>SUM(E5:E23)</f>
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/ProductBacklog/Product-Backlog.xlsx
+++ b/ProductBacklog/Product-Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>User can be selected as room administrator</t>
+  </si>
+  <si>
+    <t>Complete</t>
   </si>
 </sst>
 </file>
@@ -630,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G24"/>
+  <dimension ref="B2:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,14 +646,14 @@
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
@@ -662,7 +665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -680,7 +683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="10">
         <v>1</v>
       </c>
@@ -700,7 +703,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
         <v>2</v>
       </c>
@@ -714,10 +717,14 @@
         <v>28</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="H6">
+        <f>E11+E6</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="14">
         <v>3</v>
       </c>
@@ -734,7 +741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
         <v>4</v>
       </c>
@@ -751,7 +758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="14">
         <v>5</v>
       </c>
@@ -768,7 +775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
         <v>6</v>
       </c>
@@ -785,7 +792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="14">
         <v>7</v>
       </c>
@@ -802,7 +809,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
         <v>8</v>
       </c>
@@ -816,10 +823,10 @@
         <v>24</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
         <v>9</v>
       </c>
@@ -836,7 +843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
         <v>10</v>
       </c>
@@ -850,10 +857,10 @@
         <v>5</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="14">
         <v>11</v>
       </c>
@@ -870,7 +877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="14">
         <v>12</v>
       </c>

--- a/ProductBacklog/Product-Backlog.xlsx
+++ b/ProductBacklog/Product-Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>Complete</t>
+  </si>
+  <si>
+    <t>User can change setting of their accounts</t>
+  </si>
+  <si>
+    <t>User can view latest posts by users and rooms</t>
   </si>
 </sst>
 </file>
@@ -166,7 +172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -275,22 +281,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -331,7 +326,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H24"/>
+  <dimension ref="B2:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,26 +991,60 @@
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="18">
+      <c r="B23" s="14">
         <v>19</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="16">
         <v>7</v>
       </c>
-      <c r="E23" s="21">
-        <v>5</v>
-      </c>
-      <c r="F23" s="22" t="s">
+      <c r="E23" s="17">
+        <v>5</v>
+      </c>
+      <c r="F23" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E24">
-        <f>SUM(E5:E23)</f>
-        <v>217</v>
+      <c r="B24" s="14">
+        <v>20</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="16">
+        <v>8</v>
+      </c>
+      <c r="E24" s="17">
+        <v>5</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="18">
+        <v>21</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="20">
+        <v>8</v>
+      </c>
+      <c r="E25" s="21">
+        <v>8</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <f>SUM(E5:E25)</f>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/ProductBacklog/Product-Backlog.xlsx
+++ b/ProductBacklog/Product-Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="210" windowWidth="20115" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -42,9 +42,6 @@
     <t>User can register to the hall</t>
   </si>
   <si>
-    <t>Incomplete</t>
-  </si>
-  <si>
     <t>10 - Low</t>
   </si>
   <si>
@@ -112,6 +109,36 @@
   </si>
   <si>
     <t>User can view latest posts by users and rooms</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>Ideal Task Remaining</t>
+  </si>
+  <si>
+    <t>Actual Task Remaining</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Sprint 5</t>
+  </si>
+  <si>
+    <t>Sprint 6</t>
   </si>
 </sst>
 </file>
@@ -152,7 +179,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,18 +188,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -229,15 +268,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -285,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -299,33 +329,48 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -338,6 +383,303 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="tr-TR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Burn-Down Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal Task Remaining</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$10:$I$16</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Start</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sprint 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sprint 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sprint 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sprint 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sprint 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sprint 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$10:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual Task Remaining</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$10:$I$16</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Start</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sprint 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sprint 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sprint 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sprint 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sprint 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sprint 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$10:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="45870592"/>
+        <c:axId val="167699584"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="45870592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iteration</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Count</a:t>
+                </a:r>
+                <a:endParaRPr lang="tr-TR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="167699584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="167699584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="45870592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -627,10 +969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H26"/>
+  <dimension ref="B2:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,16 +980,19 @@
     <col min="3" max="3" width="56" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
@@ -659,396 +1004,447 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="28"/>
       <c r="G4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="10">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="15">
         <v>1</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="17">
         <v>4</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="17">
+        <v>7</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="11">
+        <v>2</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1</v>
+      </c>
+      <c r="E6" s="14">
+        <v>30</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="19">
+        <v>3</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="20">
+        <v>2</v>
+      </c>
+      <c r="E7" s="21">
+        <v>10</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="19">
+        <v>4</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="20">
+        <v>2</v>
+      </c>
+      <c r="E8" s="21">
+        <v>10</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="19">
         <v>5</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="C9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="20">
+        <v>2</v>
+      </c>
+      <c r="E9" s="21">
+        <v>6</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="19">
+        <v>6</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="20">
+        <v>2</v>
+      </c>
+      <c r="E10" s="21">
+        <v>6</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10">
+        <v>21</v>
+      </c>
+      <c r="K10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="11">
+        <v>7</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="13">
+        <v>1</v>
+      </c>
+      <c r="E11" s="13">
+        <v>10</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11">
+        <v>18</v>
+      </c>
+      <c r="K11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
         <v>8</v>
       </c>
-      <c r="G5" t="s">
+      <c r="C12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="9">
+        <v>3</v>
+      </c>
+      <c r="E12" s="10">
+        <v>24</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="19">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="14">
-        <v>2</v>
-      </c>
-      <c r="C6" s="15" t="s">
+      <c r="C13" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="20">
+        <v>3</v>
+      </c>
+      <c r="E13" s="21">
         <v>10</v>
       </c>
-      <c r="D6" s="16">
-        <v>1</v>
-      </c>
-      <c r="E6" s="17">
-        <v>28</v>
-      </c>
-      <c r="F6" s="13" t="s">
+      <c r="F13" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="19">
+        <v>10</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="20">
+        <v>3</v>
+      </c>
+      <c r="E14" s="21">
+        <v>7</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="19">
+        <v>11</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="20">
+        <v>4</v>
+      </c>
+      <c r="E15" s="21">
+        <v>10</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="19">
+        <v>12</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="20">
+        <v>4</v>
+      </c>
+      <c r="E16" s="21">
+        <v>5</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="19">
+        <v>13</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="20">
+        <v>5</v>
+      </c>
+      <c r="E17" s="21">
+        <v>20</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="19">
+        <v>14</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="20">
+        <v>5</v>
+      </c>
+      <c r="E18" s="21">
+        <v>8</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="19">
+        <v>15</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="20">
+        <v>6</v>
+      </c>
+      <c r="E19" s="21">
+        <v>20</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="19">
+        <v>16</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="20">
+        <v>4</v>
+      </c>
+      <c r="E20" s="21">
+        <v>20</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="19">
+        <v>17</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="20">
+        <v>6</v>
+      </c>
+      <c r="E21" s="21">
+        <v>10</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="19">
+        <v>18</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="20">
+        <v>6</v>
+      </c>
+      <c r="E22" s="21">
+        <v>5</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="19">
+        <v>19</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="20">
+        <v>7</v>
+      </c>
+      <c r="E23" s="21">
+        <v>6</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="19">
+        <v>20</v>
+      </c>
+      <c r="C24" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H6">
-        <f>E11+E6</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="14">
-        <v>3</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="16">
-        <v>2</v>
-      </c>
-      <c r="E7" s="17">
+      <c r="D24" s="20">
+        <v>8</v>
+      </c>
+      <c r="E24" s="21">
+        <v>6</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="22">
+        <v>21</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="24">
+        <v>8</v>
+      </c>
+      <c r="E25" s="25">
         <v>10</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="14">
-        <v>4</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="16">
-        <v>2</v>
-      </c>
-      <c r="E8" s="17">
-        <v>5</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="14">
-        <v>5</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="16">
-        <v>2</v>
-      </c>
-      <c r="E9" s="17">
-        <v>5</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="14">
-        <v>6</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="16">
-        <v>2</v>
-      </c>
-      <c r="E10" s="17">
-        <v>5</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="14">
-        <v>7</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="16">
-        <v>1</v>
-      </c>
-      <c r="E11" s="17">
-        <v>20</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="14">
-        <v>8</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="16">
-        <v>3</v>
-      </c>
-      <c r="E12" s="17">
-        <v>24</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="14">
-        <v>9</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="16">
-        <v>3</v>
-      </c>
-      <c r="E13" s="17">
-        <v>10</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="14">
-        <v>10</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="16">
-        <v>3</v>
-      </c>
-      <c r="E14" s="17">
-        <v>5</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="14">
-        <v>11</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="16">
-        <v>4</v>
-      </c>
-      <c r="E15" s="17">
-        <v>10</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="14">
-        <v>12</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="16">
-        <v>4</v>
-      </c>
-      <c r="E16" s="17">
-        <v>5</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="14">
-        <v>13</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="16">
-        <v>5</v>
-      </c>
-      <c r="E17" s="17">
-        <v>20</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="14">
-        <v>14</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="16">
-        <v>5</v>
-      </c>
-      <c r="E18" s="17">
-        <v>5</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="14">
-        <v>15</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="16">
-        <v>6</v>
-      </c>
-      <c r="E19" s="17">
-        <v>20</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="14">
-        <v>16</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="16">
-        <v>4</v>
-      </c>
-      <c r="E20" s="17">
-        <v>20</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="14">
-        <v>17</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="16">
-        <v>6</v>
-      </c>
-      <c r="E21" s="17">
-        <v>10</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="14">
-        <v>18</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="16">
-        <v>6</v>
-      </c>
-      <c r="E22" s="17">
-        <v>5</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="14">
-        <v>19</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="16">
-        <v>7</v>
-      </c>
-      <c r="E23" s="17">
-        <v>5</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="14">
-        <v>20</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="16">
-        <v>8</v>
-      </c>
-      <c r="E24" s="17">
-        <v>5</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="18">
-        <v>21</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="20">
-        <v>8</v>
-      </c>
-      <c r="E25" s="21">
-        <v>8</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>8</v>
+      <c r="F25" s="23" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E26">
         <f>SUM(E5:E25)</f>
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/ProductBacklog/Product-Backlog.xlsx
+++ b/ProductBacklog/Product-Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="210" windowWidth="20115" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="270" windowWidth="20115" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -358,19 +358,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,11 +569,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="45870592"/>
-        <c:axId val="167699584"/>
+        <c:axId val="42873344"/>
+        <c:axId val="292843456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="45870592"/>
+        <c:axId val="42873344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -606,7 +606,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167699584"/>
+        <c:crossAx val="292843456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -614,7 +614,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167699584"/>
+        <c:axId val="292843456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -625,7 +625,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45870592"/>
+        <c:crossAx val="42873344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -971,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,19 +1005,19 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="28"/>
+      <c r="F4" s="24"/>
       <c r="G4" t="s">
         <v>6</v>
       </c>
@@ -1284,20 +1284,20 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="19">
+      <c r="B17" s="7">
         <v>13</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="9">
         <v>5</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="10">
         <v>20</v>
       </c>
-      <c r="F17" s="18" t="s">
-        <v>31</v>
+      <c r="F17" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -1403,37 +1403,37 @@
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="19">
+      <c r="B24" s="7">
         <v>20</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="9">
         <v>8</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="10">
         <v>6</v>
       </c>
-      <c r="F24" s="18" t="s">
-        <v>31</v>
+      <c r="F24" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="22">
+      <c r="B25" s="25">
         <v>21</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="27">
         <v>8</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="28">
         <v>10</v>
       </c>
-      <c r="F25" s="23" t="s">
-        <v>31</v>
+      <c r="F25" s="26" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">

--- a/ProductBacklog/Product-Backlog.xlsx
+++ b/ProductBacklog/Product-Backlog.xlsx
@@ -569,11 +569,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="42873344"/>
-        <c:axId val="292843456"/>
+        <c:axId val="290568192"/>
+        <c:axId val="214617472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="42873344"/>
+        <c:axId val="290568192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -606,7 +606,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="292843456"/>
+        <c:crossAx val="214617472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -614,7 +614,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="292843456"/>
+        <c:axId val="214617472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -625,7 +625,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42873344"/>
+        <c:crossAx val="290568192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -971,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,37 +1077,37 @@
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="19">
+      <c r="B8" s="11">
         <v>4</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="13">
         <v>2</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="14">
         <v>10</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>31</v>
+      <c r="F8" s="12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="19">
+      <c r="B9" s="7">
         <v>5</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="9">
         <v>2</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="10">
         <v>6</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>31</v>
+      <c r="F9" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="J9" t="s">
         <v>32</v>
@@ -1169,20 +1169,20 @@
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="7">
+      <c r="B12" s="11">
         <v>8</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="13">
         <v>3</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="14">
         <v>24</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>10</v>
+      <c r="F12" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="I12" t="s">
         <v>36</v>
@@ -1192,20 +1192,20 @@
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="19">
+      <c r="B13" s="7">
         <v>9</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="9">
         <v>3</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="10">
         <v>10</v>
       </c>
-      <c r="F13" s="18" t="s">
-        <v>31</v>
+      <c r="F13" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="I13" t="s">
         <v>37</v>

--- a/ProductBacklog/Product-Backlog.xlsx
+++ b/ProductBacklog/Product-Backlog.xlsx
@@ -569,11 +569,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="290568192"/>
-        <c:axId val="214617472"/>
+        <c:axId val="59679872"/>
+        <c:axId val="59681792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="290568192"/>
+        <c:axId val="59679872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -606,7 +606,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214617472"/>
+        <c:crossAx val="59681792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -614,7 +614,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214617472"/>
+        <c:axId val="59681792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -625,7 +625,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="290568192"/>
+        <c:crossAx val="59679872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -972,7 +972,7 @@
   <dimension ref="B2:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1238,20 +1238,20 @@
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="19">
+      <c r="B15" s="7">
         <v>11</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="9">
         <v>4</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="10">
         <v>10</v>
       </c>
-      <c r="F15" s="18" t="s">
-        <v>31</v>
+      <c r="F15" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="I15" t="s">
         <v>39</v>

--- a/ProductBacklog/Product-Backlog.xlsx
+++ b/ProductBacklog/Product-Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="270" windowWidth="20115" windowHeight="7875"/>
+    <workbookView xWindow="240" yWindow="330" windowWidth="20115" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -179,7 +179,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,6 +210,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -315,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -369,6 +375,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -554,6 +568,9 @@
                 <c:pt idx="1">
                   <c:v>19</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -569,11 +586,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="59679872"/>
-        <c:axId val="59681792"/>
+        <c:axId val="44929024"/>
+        <c:axId val="92701824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59679872"/>
+        <c:axId val="44929024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -606,7 +623,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59681792"/>
+        <c:crossAx val="92701824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -614,18 +631,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59681792"/>
+        <c:axId val="92701824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59679872"/>
+        <c:crossAx val="44929024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -651,16 +687,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -971,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,24 +1126,24 @@
         <v>10</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="7">
+      <c r="B9" s="11">
         <v>5</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="13">
         <v>2</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="14">
         <v>6</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>10</v>
+      <c r="F9" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="J9" t="s">
         <v>32</v>
@@ -1190,22 +1226,25 @@
       <c r="J12">
         <v>14</v>
       </c>
+      <c r="K12">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="7">
+      <c r="B13" s="29">
         <v>9</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="31">
         <v>3</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="32">
         <v>10</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>10</v>
+      <c r="F13" s="30" t="s">
+        <v>31</v>
       </c>
       <c r="I13" t="s">
         <v>37</v>
@@ -1284,37 +1323,37 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="7">
+      <c r="B17" s="11">
         <v>13</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="13">
         <v>5</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="14">
         <v>20</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="7">
+        <v>14</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="9">
+        <v>5</v>
+      </c>
+      <c r="E18" s="10">
+        <v>8</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="19">
-        <v>14</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="20">
-        <v>5</v>
-      </c>
-      <c r="E18" s="21">
-        <v>8</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -1403,20 +1442,20 @@
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="7">
+      <c r="B24" s="11">
         <v>20</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="13">
         <v>8</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="14">
         <v>6</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>10</v>
+      <c r="F24" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">

--- a/ProductBacklog/Product-Backlog.xlsx
+++ b/ProductBacklog/Product-Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="330" windowWidth="20115" windowHeight="7815"/>
+    <workbookView xWindow="240" yWindow="390" windowWidth="20115" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -54,12 +54,6 @@
     <t>User can edit/delete posts</t>
   </si>
   <si>
-    <t>User can write a comment on post</t>
-  </si>
-  <si>
-    <t>User can write a comment for comment</t>
-  </si>
-  <si>
     <t>User can edit/delete comment</t>
   </si>
   <si>
@@ -108,9 +102,6 @@
     <t>User can change setting of their accounts</t>
   </si>
   <si>
-    <t>User can view latest posts by users and rooms</t>
-  </si>
-  <si>
     <t>Not Started</t>
   </si>
   <si>
@@ -139,6 +130,18 @@
   </si>
   <si>
     <t>Sprint 6</t>
+  </si>
+  <si>
+    <t>User can view latest posts of rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User can view latest posts by votes </t>
+  </si>
+  <si>
+    <t>User can comment on post</t>
+  </si>
+  <si>
+    <t>User can comment on comment</t>
   </si>
 </sst>
 </file>
@@ -217,7 +220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -251,21 +254,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -317,11 +305,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -335,56 +356,62 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,19 +515,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4</c:v>
@@ -563,13 +590,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -586,11 +616,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="44929024"/>
-        <c:axId val="92701824"/>
+        <c:axId val="234429440"/>
+        <c:axId val="234418688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="44929024"/>
+        <c:axId val="234429440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -623,7 +653,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92701824"/>
+        <c:crossAx val="234418688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -631,7 +661,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92701824"/>
+        <c:axId val="234418688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -661,7 +691,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44929024"/>
+        <c:crossAx val="234429440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1005,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K26"/>
+  <dimension ref="B2:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G26"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,7 +1071,7 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="36" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="22" t="s">
@@ -1053,7 +1083,7 @@
       <c r="E4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="24"/>
+      <c r="F4" s="30"/>
       <c r="G4" t="s">
         <v>6</v>
       </c>
@@ -1071,28 +1101,28 @@
       <c r="E5" s="17">
         <v>7</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>31</v>
+      <c r="F5" s="31" t="s">
+        <v>28</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="11">
+      <c r="B6" s="7">
         <v>2</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="9">
         <v>1</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="10">
         <v>30</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>28</v>
+      <c r="F6" s="32" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -1108,8 +1138,12 @@
       <c r="E7" s="21">
         <v>10</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>31</v>
+      <c r="F7" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7">
+        <f>SUM(E8,E9,E12,E24,E25)</f>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -1117,7 +1151,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D8" s="13">
         <v>2</v>
@@ -1125,8 +1159,8 @@
       <c r="E8" s="14">
         <v>10</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>28</v>
+      <c r="F8" s="33" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -1134,7 +1168,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D9" s="13">
         <v>2</v>
@@ -1142,14 +1176,14 @@
       <c r="E9" s="14">
         <v>6</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>28</v>
+      <c r="F9" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="J9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
@@ -1157,7 +1191,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D10" s="20">
         <v>2</v>
@@ -1165,43 +1199,43 @@
       <c r="E10" s="21">
         <v>6</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
         <v>31</v>
       </c>
-      <c r="I10" t="s">
-        <v>34</v>
-      </c>
       <c r="J10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K10">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="11">
+      <c r="B11" s="7">
         <v>7</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="13">
+      <c r="C11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="9">
         <v>1</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="9">
+        <v>40</v>
+      </c>
+      <c r="F11" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>28</v>
-      </c>
       <c r="I11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J11">
+        <v>19</v>
+      </c>
+      <c r="K11">
         <v>18</v>
-      </c>
-      <c r="K11">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
@@ -1209,48 +1243,51 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12" s="13">
         <v>3</v>
       </c>
       <c r="E12" s="14">
-        <v>24</v>
-      </c>
-      <c r="F12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12">
+        <v>17</v>
+      </c>
+      <c r="K12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="24">
+        <v>9</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="26">
+        <v>3</v>
+      </c>
+      <c r="E13" s="27">
+        <v>10</v>
+      </c>
+      <c r="F13" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="I12" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12">
-        <v>14</v>
-      </c>
-      <c r="K12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="29">
-        <v>9</v>
-      </c>
-      <c r="C13" s="30" t="s">
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13">
+        <v>15</v>
+      </c>
+      <c r="K13">
         <v>17</v>
-      </c>
-      <c r="D13" s="31">
-        <v>3</v>
-      </c>
-      <c r="E13" s="32">
-        <v>10</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" t="s">
-        <v>37</v>
-      </c>
-      <c r="J13">
-        <v>11</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -1258,7 +1295,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D14" s="20">
         <v>3</v>
@@ -1266,34 +1303,34 @@
       <c r="E14" s="21">
         <v>7</v>
       </c>
-      <c r="F14" s="18" t="s">
-        <v>31</v>
+      <c r="F14" s="31" t="s">
+        <v>28</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J14">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="7">
+      <c r="B15" s="19">
         <v>11</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="9">
+      <c r="C15" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="20">
         <v>4</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="21">
         <v>10</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>10</v>
+      <c r="F15" s="31" t="s">
+        <v>28</v>
       </c>
       <c r="I15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J15">
         <v>4</v>
@@ -1304,7 +1341,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D16" s="20">
         <v>4</v>
@@ -1312,31 +1349,31 @@
       <c r="E16" s="21">
         <v>5</v>
       </c>
-      <c r="F16" s="18" t="s">
-        <v>31</v>
+      <c r="F16" s="31" t="s">
+        <v>28</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="11">
+      <c r="B17" s="7">
         <v>13</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="13">
+      <c r="C17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="9">
         <v>5</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="10">
         <v>20</v>
       </c>
-      <c r="F17" s="12" t="s">
-        <v>28</v>
+      <c r="F17" s="32" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -1344,15 +1381,15 @@
         <v>14</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D18" s="9">
         <v>5</v>
       </c>
       <c r="E18" s="10">
-        <v>8</v>
-      </c>
-      <c r="F18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="32" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1361,16 +1398,16 @@
         <v>15</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D19" s="20">
         <v>6</v>
       </c>
       <c r="E19" s="21">
-        <v>20</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -1378,16 +1415,16 @@
         <v>16</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D20" s="20">
         <v>4</v>
       </c>
       <c r="E20" s="21">
-        <v>20</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>31</v>
+        <v>18</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -1395,7 +1432,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D21" s="20">
         <v>6</v>
@@ -1403,8 +1440,8 @@
       <c r="E21" s="21">
         <v>10</v>
       </c>
-      <c r="F21" s="18" t="s">
-        <v>31</v>
+      <c r="F21" s="31" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -1412,7 +1449,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D22" s="20">
         <v>6</v>
@@ -1420,8 +1457,8 @@
       <c r="E22" s="21">
         <v>5</v>
       </c>
-      <c r="F22" s="18" t="s">
-        <v>31</v>
+      <c r="F22" s="31" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -1429,7 +1466,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D23" s="20">
         <v>7</v>
@@ -1437,8 +1474,8 @@
       <c r="E23" s="21">
         <v>6</v>
       </c>
-      <c r="F23" s="18" t="s">
-        <v>31</v>
+      <c r="F23" s="31" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -1446,7 +1483,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D24" s="13">
         <v>8</v>
@@ -1454,31 +1491,48 @@
       <c r="E24" s="14">
         <v>6</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="11">
+        <v>21</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="13">
+        <v>8</v>
+      </c>
+      <c r="E25" s="14">
+        <v>10</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="28">
+        <v>22</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="37">
+        <v>4</v>
+      </c>
+      <c r="E26" s="35">
+        <v>10</v>
+      </c>
+      <c r="F26" s="29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="25">
-        <v>21</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="27">
-        <v>8</v>
-      </c>
-      <c r="E25" s="28">
-        <v>10</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E26">
-        <f>SUM(E5:E25)</f>
-        <v>240</v>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <f>SUM(E5:E26)</f>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/ProductBacklog/Product-Backlog.xlsx
+++ b/ProductBacklog/Product-Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="390" windowWidth="20115" windowHeight="7755"/>
+    <workbookView xWindow="240" yWindow="450" windowWidth="20115" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -372,11 +372,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -397,21 +392,26 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,6 +601,9 @@
                 <c:pt idx="3">
                   <c:v>17</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -616,11 +619,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="234429440"/>
-        <c:axId val="234418688"/>
+        <c:axId val="292100096"/>
+        <c:axId val="215797120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="234429440"/>
+        <c:axId val="292100096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -653,7 +656,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="234418688"/>
+        <c:crossAx val="215797120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -661,7 +664,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="234418688"/>
+        <c:axId val="215797120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -691,7 +694,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="234429440"/>
+        <c:crossAx val="292100096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1038,7 +1041,7 @@
   <dimension ref="B2:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,74 +1074,74 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="30"/>
+      <c r="F4" s="25"/>
       <c r="G4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="15">
+      <c r="B5" s="31">
         <v>1</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="33">
         <v>4</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="33">
         <v>7</v>
       </c>
-      <c r="F5" s="31" t="s">
-        <v>28</v>
+      <c r="F5" s="28" t="s">
+        <v>26</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="7">
+      <c r="B6" s="11">
         <v>2</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="13">
         <v>1</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="14">
         <v>30</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="16">
+        <v>3</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="17">
+        <v>2</v>
+      </c>
+      <c r="E7" s="18">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="19">
-        <v>3</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="20">
-        <v>2</v>
-      </c>
-      <c r="E7" s="21">
-        <v>10</v>
-      </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="26" t="s">
         <v>28</v>
       </c>
       <c r="H7">
@@ -1159,7 +1162,7 @@
       <c r="E8" s="14">
         <v>10</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="28" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1176,7 +1179,7 @@
       <c r="E9" s="14">
         <v>6</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J9" t="s">
@@ -1187,19 +1190,19 @@
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="19">
+      <c r="B10" s="16">
         <v>6</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="17">
         <v>2</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="18">
         <v>6</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="26" t="s">
         <v>28</v>
       </c>
       <c r="I10" t="s">
@@ -1223,9 +1226,9 @@
         <v>1</v>
       </c>
       <c r="E11" s="9">
-        <v>40</v>
-      </c>
-      <c r="F11" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="27" t="s">
         <v>10</v>
       </c>
       <c r="I11" t="s">
@@ -1251,7 +1254,7 @@
       <c r="E12" s="14">
         <v>14</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="28" t="s">
         <v>26</v>
       </c>
       <c r="I12" t="s">
@@ -1265,19 +1268,19 @@
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="24">
+      <c r="B13" s="21">
         <v>9</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="23">
         <v>3</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="24">
         <v>10</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="29" t="s">
         <v>28</v>
       </c>
       <c r="I13" t="s">
@@ -1291,20 +1294,20 @@
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="19">
+      <c r="B14" s="11">
         <v>10</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="13">
         <v>3</v>
       </c>
-      <c r="E14" s="21">
-        <v>7</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>28</v>
+      <c r="E14" s="14">
+        <v>4</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>26</v>
       </c>
       <c r="I14" t="s">
         <v>35</v>
@@ -1312,22 +1315,25 @@
       <c r="J14">
         <v>8</v>
       </c>
+      <c r="K14">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="19">
+      <c r="B15" s="11">
         <v>11</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="13">
         <v>4</v>
       </c>
-      <c r="E15" s="21">
-        <v>10</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>28</v>
+      <c r="E15" s="14">
+        <v>3</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>26</v>
       </c>
       <c r="I15" t="s">
         <v>36</v>
@@ -1337,19 +1343,19 @@
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="19">
+      <c r="B16" s="16">
         <v>12</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="17">
         <v>4</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="18">
         <v>5</v>
       </c>
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="26" t="s">
         <v>28</v>
       </c>
       <c r="I16" t="s">
@@ -1370,9 +1376,9 @@
         <v>5</v>
       </c>
       <c r="E17" s="10">
-        <v>20</v>
-      </c>
-      <c r="F17" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="27" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1389,92 +1395,92 @@
       <c r="E18" s="10">
         <v>10</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="19">
+      <c r="B19" s="16">
         <v>15</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="17">
         <v>6</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="18">
         <v>10</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="26" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="19">
+      <c r="B20" s="11">
         <v>16</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="13">
         <v>4</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="14">
+        <v>6</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="16">
+        <v>17</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="17">
+        <v>6</v>
+      </c>
+      <c r="E21" s="18">
+        <v>8</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="16">
         <v>18</v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="C22" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="17">
+        <v>6</v>
+      </c>
+      <c r="E22" s="18">
+        <v>5</v>
+      </c>
+      <c r="F22" s="26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="19">
-        <v>17</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="20">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="16">
+        <v>19</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="17">
+        <v>7</v>
+      </c>
+      <c r="E23" s="18">
         <v>6</v>
       </c>
-      <c r="E21" s="21">
-        <v>10</v>
-      </c>
-      <c r="F21" s="31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="19">
-        <v>18</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="20">
-        <v>6</v>
-      </c>
-      <c r="E22" s="21">
-        <v>5</v>
-      </c>
-      <c r="F22" s="31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="19">
-        <v>19</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="20">
-        <v>7</v>
-      </c>
-      <c r="E23" s="21">
-        <v>6</v>
-      </c>
-      <c r="F23" s="31" t="s">
+      <c r="F23" s="26" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1491,7 +1497,7 @@
       <c r="E24" s="14">
         <v>6</v>
       </c>
-      <c r="F24" s="33" t="s">
+      <c r="F24" s="28" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1508,31 +1514,31 @@
       <c r="E25" s="14">
         <v>10</v>
       </c>
-      <c r="F25" s="33" t="s">
+      <c r="F25" s="28" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="28">
+      <c r="B26" s="34">
         <v>22</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="37">
+      <c r="D26" s="36">
         <v>4</v>
       </c>
-      <c r="E26" s="35">
-        <v>10</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>28</v>
+      <c r="E26" s="37">
+        <v>2</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E27">
         <f>SUM(E5:E26)</f>
-        <v>260</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/ProductBacklog/Product-Backlog.xlsx
+++ b/ProductBacklog/Product-Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="450" windowWidth="20115" windowHeight="7695"/>
+    <workbookView xWindow="240" yWindow="510" windowWidth="20115" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -87,12 +87,6 @@
     <t>User can browse hall and rooms</t>
   </si>
   <si>
-    <t>User can see notifications</t>
-  </si>
-  <si>
-    <t>User can manage followers, posts and subcriptions</t>
-  </si>
-  <si>
     <t>User can be selected as room administrator</t>
   </si>
   <si>
@@ -142,13 +136,28 @@
   </si>
   <si>
     <t>User can comment on comment</t>
+  </si>
+  <si>
+    <t>User can view other user's profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User can view their profile </t>
+  </si>
+  <si>
+    <t>User can edit their profile setting and credentials</t>
+  </si>
+  <si>
+    <t>User recives confirmation email for creating account</t>
+  </si>
+  <si>
+    <t>User can manage posts and subcriptions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,8 +190,15 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,14 +229,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -254,8 +264,30 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -265,16 +297,79 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -285,64 +380,20 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -356,62 +407,53 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,19 +557,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4</c:v>
@@ -590,7 +632,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>18</c:v>
@@ -602,7 +644,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -619,11 +661,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="292100096"/>
-        <c:axId val="215797120"/>
+        <c:axId val="290974720"/>
+        <c:axId val="223465984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="292100096"/>
+        <c:axId val="290974720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -656,7 +698,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215797120"/>
+        <c:crossAx val="223465984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -664,7 +706,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215797120"/>
+        <c:axId val="223465984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -694,7 +736,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="292100096"/>
+        <c:crossAx val="290974720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -728,7 +770,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1038,10 +1080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K27"/>
+  <dimension ref="B2:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,8 +1103,8 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="18"/>
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
@@ -1074,165 +1116,165 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="25"/>
+      <c r="F4" s="31"/>
       <c r="G4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="31">
+      <c r="B5" s="23">
         <v>1</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="10">
         <v>4</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="10">
         <v>7</v>
       </c>
-      <c r="F5" s="28" t="s">
-        <v>26</v>
+      <c r="F5" s="32" t="s">
+        <v>24</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="11">
+      <c r="B6" s="24">
         <v>2</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="9">
         <v>1</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="10">
         <v>30</v>
       </c>
-      <c r="F6" s="28" t="s">
-        <v>26</v>
+      <c r="F6" s="32" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="16">
+      <c r="B7" s="25">
         <v>3</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="11">
         <v>2</v>
       </c>
-      <c r="E7" s="18">
-        <v>10</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>28</v>
+      <c r="E7" s="12">
+        <v>8</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="H7">
         <f>SUM(E8,E9,E12,E24,E25)</f>
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="11">
+      <c r="B8" s="24">
         <v>4</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="13">
+      <c r="C8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="9">
         <v>2</v>
       </c>
-      <c r="E8" s="14">
-        <v>10</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>26</v>
+      <c r="E8" s="10">
+        <v>5</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="11">
+      <c r="B9" s="24">
         <v>5</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="13">
+      <c r="C9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="9">
         <v>2</v>
       </c>
-      <c r="E9" s="14">
-        <v>6</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>26</v>
+      <c r="E9" s="10">
+        <v>3</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>24</v>
       </c>
       <c r="J9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="16">
+      <c r="B10" s="25">
         <v>6</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="11">
         <v>2</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="12">
         <v>6</v>
       </c>
-      <c r="F10" s="26" t="s">
-        <v>28</v>
+      <c r="F10" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="I10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J10">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K10">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="7">
+      <c r="B11" s="24">
         <v>7</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="9">
         <v>1</v>
       </c>
       <c r="E11" s="9">
-        <v>50</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>10</v>
+        <v>54</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J11">
         <v>19</v>
@@ -1242,134 +1284,134 @@
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="11">
+      <c r="B12" s="24">
         <v>8</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="9">
         <v>3</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="10">
         <v>14</v>
       </c>
-      <c r="F12" s="28" t="s">
-        <v>26</v>
+      <c r="F12" s="32" t="s">
+        <v>24</v>
       </c>
       <c r="I12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J12">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K12">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="21">
+      <c r="B13" s="24">
         <v>9</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="9">
         <v>3</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="10">
+        <v>5</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13">
         <v>10</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13">
-        <v>15</v>
       </c>
       <c r="K13">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="11">
+      <c r="B14" s="24">
         <v>10</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="9">
         <v>3</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="10">
         <v>4</v>
       </c>
-      <c r="F14" s="28" t="s">
-        <v>26</v>
+      <c r="F14" s="32" t="s">
+        <v>24</v>
       </c>
       <c r="I14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J14">
+        <v>7</v>
+      </c>
+      <c r="K14">
         <v>8</v>
       </c>
-      <c r="K14">
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="24">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="11">
-        <v>11</v>
-      </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="9">
         <v>4</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="10">
         <v>3</v>
       </c>
-      <c r="F15" s="28" t="s">
-        <v>26</v>
+      <c r="F15" s="32" t="s">
+        <v>24</v>
       </c>
       <c r="I15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J15">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="16">
+      <c r="B16" s="25">
         <v>12</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="11">
         <v>4</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="12">
         <v>5</v>
       </c>
-      <c r="F16" s="26" t="s">
-        <v>28</v>
+      <c r="F16" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="I16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="7">
+      <c r="B17" s="24">
         <v>13</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="9">
@@ -1378,167 +1420,218 @@
       <c r="E17" s="10">
         <v>22</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="26">
+        <v>14</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="7">
+        <v>5</v>
+      </c>
+      <c r="E18" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="7">
-        <v>14</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="9">
-        <v>5</v>
-      </c>
-      <c r="E18" s="10">
+      <c r="F18" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="27" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="16">
+      <c r="B19" s="25">
         <v>15</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="11">
         <v>6</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="12">
+        <v>7</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="24">
+        <v>16</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="9">
+        <v>4</v>
+      </c>
+      <c r="E20" s="10">
+        <v>6</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="24">
+        <v>17</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="9">
+        <v>6</v>
+      </c>
+      <c r="E21" s="10">
+        <v>4</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="26">
+        <v>18</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="7">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8">
+        <v>6</v>
+      </c>
+      <c r="F22" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="11">
-        <v>16</v>
-      </c>
-      <c r="C20" s="12" t="s">
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="25">
+        <v>19</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="11">
+        <v>7</v>
+      </c>
+      <c r="E23" s="12">
+        <v>10</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="24">
+        <v>20</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="9">
+        <v>8</v>
+      </c>
+      <c r="E24" s="10">
+        <v>6</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="24">
+        <v>21</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="9">
+        <v>8</v>
+      </c>
+      <c r="E25" s="10">
+        <v>10</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="24">
         <v>22</v>
       </c>
-      <c r="D20" s="13">
+      <c r="C26" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="9">
         <v>4</v>
       </c>
-      <c r="E20" s="14">
-        <v>6</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="16">
-        <v>17</v>
-      </c>
-      <c r="C21" s="15" t="s">
+      <c r="E26" s="10">
+        <v>2</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="24">
         <v>23</v>
       </c>
-      <c r="D21" s="17">
-        <v>6</v>
-      </c>
-      <c r="E21" s="18">
+      <c r="C27" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="9">
+        <v>7</v>
+      </c>
+      <c r="E27" s="10">
+        <v>5</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="24">
+        <v>24</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="9">
+        <v>7</v>
+      </c>
+      <c r="E28" s="10">
+        <v>4</v>
+      </c>
+      <c r="F28" s="32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="27">
+        <v>25</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="29">
         <v>8</v>
       </c>
-      <c r="F21" s="26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="16">
-        <v>18</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="17">
-        <v>6</v>
-      </c>
-      <c r="E22" s="18">
-        <v>5</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="16">
-        <v>19</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="17">
-        <v>7</v>
-      </c>
-      <c r="E23" s="18">
-        <v>6</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="11">
-        <v>20</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="13">
-        <v>8</v>
-      </c>
-      <c r="E24" s="14">
-        <v>6</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="11">
-        <v>21</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="13">
-        <v>8</v>
-      </c>
-      <c r="E25" s="14">
-        <v>10</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="34">
-        <v>22</v>
-      </c>
-      <c r="C26" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="36">
-        <v>4</v>
-      </c>
-      <c r="E26" s="37">
-        <v>2</v>
-      </c>
-      <c r="F26" s="38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E27">
-        <f>SUM(E5:E26)</f>
-        <v>240</v>
+      <c r="E29" s="30">
+        <v>3</v>
+      </c>
+      <c r="F29" s="35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <f>SUM(E5:E29)</f>
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/ProductBacklog/Product-Backlog.xlsx
+++ b/ProductBacklog/Product-Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="510" windowWidth="20115" windowHeight="7635"/>
+    <workbookView xWindow="240" yWindow="630" windowWidth="20115" windowHeight="7515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -48,9 +48,6 @@
     <t>User can post in room</t>
   </si>
   <si>
-    <t>InProgress</t>
-  </si>
-  <si>
     <t>User can edit/delete posts</t>
   </si>
   <si>
@@ -87,16 +84,10 @@
     <t>User can browse hall and rooms</t>
   </si>
   <si>
-    <t>User can be selected as room administrator</t>
-  </si>
-  <si>
     <t>Complete</t>
   </si>
   <si>
     <t>User can change setting of their accounts</t>
-  </si>
-  <si>
-    <t>Not Started</t>
   </si>
   <si>
     <t>Ideal Task Remaining</t>
@@ -198,7 +189,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,19 +198,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,7 +209,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -389,11 +368,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -413,47 +410,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,11 +645,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="290974720"/>
-        <c:axId val="223465984"/>
+        <c:axId val="158924288"/>
+        <c:axId val="158810112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="290974720"/>
+        <c:axId val="158924288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -698,7 +682,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="223465984"/>
+        <c:crossAx val="158810112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -706,7 +690,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="223465984"/>
+        <c:axId val="158810112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -736,7 +720,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="290974720"/>
+        <c:crossAx val="158924288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1080,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K30"/>
+  <dimension ref="B2:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,7 +1088,7 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="18"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
@@ -1116,75 +1100,75 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="31"/>
+      <c r="F4" s="23"/>
       <c r="G4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="23">
+      <c r="B5" s="17">
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>4</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="8">
         <v>7</v>
       </c>
-      <c r="F5" s="32" t="s">
-        <v>24</v>
+      <c r="F5" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="24">
+      <c r="B6" s="18">
         <v>2</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <v>1</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="8">
         <v>30</v>
       </c>
-      <c r="F6" s="32" t="s">
-        <v>24</v>
+      <c r="F6" s="24" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="25">
+      <c r="B7" s="18">
         <v>3</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="11">
+      <c r="C7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7">
         <v>2</v>
       </c>
-      <c r="E7" s="12">
-        <v>8</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>26</v>
+      <c r="E7" s="8">
+        <v>9</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="H7">
         <f>SUM(E8,E9,E12,E24,E25)</f>
@@ -1192,63 +1176,63 @@
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="24">
+      <c r="B8" s="18">
         <v>4</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="C8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="7">
         <v>2</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="8">
         <v>5</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="18">
+        <v>5</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2</v>
+      </c>
+      <c r="E9" s="8">
+        <v>3</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="24">
-        <v>5</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="9">
+      <c r="K9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="18">
+        <v>6</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="7">
         <v>2</v>
       </c>
-      <c r="E9" s="10">
-        <v>3</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="25">
-        <v>6</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="11">
-        <v>2</v>
-      </c>
-      <c r="E10" s="12">
-        <v>6</v>
-      </c>
-      <c r="F10" s="33" t="s">
+      <c r="E10" s="8">
+        <v>7</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" t="s">
         <v>26</v>
-      </c>
-      <c r="I10" t="s">
-        <v>29</v>
       </c>
       <c r="J10">
         <v>25</v>
@@ -1258,23 +1242,23 @@
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="24">
+      <c r="B11" s="18">
         <v>7</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="9">
+      <c r="C11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="7">
         <v>1</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="7">
         <v>54</v>
       </c>
-      <c r="F11" s="32" t="s">
-        <v>24</v>
+      <c r="F11" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="I11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J11">
         <v>19</v>
@@ -1284,23 +1268,23 @@
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="24">
+      <c r="B12" s="18">
         <v>8</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="7">
+        <v>3</v>
+      </c>
+      <c r="E12" s="8">
         <v>14</v>
       </c>
-      <c r="D12" s="9">
-        <v>3</v>
-      </c>
-      <c r="E12" s="10">
-        <v>14</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>24</v>
+      <c r="F12" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="I12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J12">
         <v>15</v>
@@ -1310,23 +1294,23 @@
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="24">
+      <c r="B13" s="18">
         <v>9</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="9">
+      <c r="C13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7">
         <v>3</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="8">
         <v>5</v>
       </c>
-      <c r="F13" s="32" t="s">
-        <v>24</v>
+      <c r="F13" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="I13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J13">
         <v>10</v>
@@ -1336,23 +1320,23 @@
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="24">
+      <c r="B14" s="18">
         <v>10</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="9">
+      <c r="C14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="7">
         <v>3</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="8">
         <v>4</v>
       </c>
-      <c r="F14" s="32" t="s">
-        <v>24</v>
+      <c r="F14" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J14">
         <v>7</v>
@@ -1362,74 +1346,74 @@
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="24">
+      <c r="B15" s="18">
         <v>11</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="9">
+      <c r="C15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="7">
         <v>4</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="8">
         <v>3</v>
       </c>
-      <c r="F15" s="32" t="s">
-        <v>24</v>
+      <c r="F15" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J15">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="25">
+      <c r="B16" s="18">
         <v>12</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="11">
+      <c r="C16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="7">
         <v>4</v>
       </c>
-      <c r="E16" s="12">
-        <v>5</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>26</v>
+      <c r="E16" s="8">
+        <v>8</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="I16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="24">
+      <c r="B17" s="18">
         <v>13</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="7">
+        <v>5</v>
+      </c>
+      <c r="E17" s="8">
+        <v>22</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="18">
+        <v>14</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="D17" s="9">
-        <v>5</v>
-      </c>
-      <c r="E17" s="10">
-        <v>22</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="26">
-        <v>14</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="D18" s="7">
         <v>5</v>
@@ -1437,201 +1421,184 @@
       <c r="E18" s="8">
         <v>10</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="18">
+        <v>15</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="7">
+        <v>6</v>
+      </c>
+      <c r="E19" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="25">
-        <v>15</v>
-      </c>
-      <c r="C19" s="15" t="s">
+      <c r="F19" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="18">
+        <v>16</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D20" s="7">
+        <v>4</v>
+      </c>
+      <c r="E20" s="8">
         <v>6</v>
       </c>
-      <c r="E19" s="12">
-        <v>7</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="24">
-        <v>16</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="9">
+      <c r="F20" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="18">
+        <v>17</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="7">
+        <v>6</v>
+      </c>
+      <c r="E21" s="8">
         <v>4</v>
       </c>
-      <c r="E20" s="10">
-        <v>6</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="24">
-        <v>17</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="9">
-        <v>6</v>
-      </c>
-      <c r="E21" s="10">
-        <v>4</v>
-      </c>
-      <c r="F21" s="32" t="s">
-        <v>24</v>
+      <c r="F21" s="24" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="26">
+      <c r="B22" s="18">
         <v>18</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>44</v>
+      <c r="C22" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="D22" s="7">
         <v>6</v>
       </c>
       <c r="E22" s="8">
+        <v>9</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="26">
+        <v>19</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="27">
+        <v>8</v>
+      </c>
+      <c r="E23" s="8">
+        <v>3</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="18">
+        <v>20</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="7">
+        <v>8</v>
+      </c>
+      <c r="E24" s="8">
         <v>6</v>
       </c>
-      <c r="F22" s="34" t="s">
+      <c r="F24" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="18">
+        <v>21</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="7">
+        <v>8</v>
+      </c>
+      <c r="E25" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="25">
-        <v>19</v>
-      </c>
-      <c r="C23" s="15" t="s">
+      <c r="F25" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="18">
+        <v>22</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="7">
+        <v>4</v>
+      </c>
+      <c r="E26" s="8">
+        <v>2</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="18">
         <v>23</v>
       </c>
-      <c r="D23" s="11">
+      <c r="C27" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="7">
         <v>7</v>
       </c>
-      <c r="E23" s="12">
-        <v>10</v>
-      </c>
-      <c r="F23" s="33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="24">
-        <v>20</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="9">
-        <v>8</v>
-      </c>
-      <c r="E24" s="10">
-        <v>6</v>
-      </c>
-      <c r="F24" s="32" t="s">
+      <c r="E27" s="8">
+        <v>5</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="19">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="24">
-        <v>21</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="9">
-        <v>8</v>
-      </c>
-      <c r="E25" s="10">
-        <v>10</v>
-      </c>
-      <c r="F25" s="32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="24">
-        <v>22</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="9">
+      <c r="C28" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="21">
+        <v>7</v>
+      </c>
+      <c r="E28" s="22">
         <v>4</v>
       </c>
-      <c r="E26" s="10">
-        <v>2</v>
-      </c>
-      <c r="F26" s="32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="24">
-        <v>23</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="9">
-        <v>7</v>
-      </c>
-      <c r="E27" s="10">
-        <v>5</v>
-      </c>
-      <c r="F27" s="32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="24">
-        <v>24</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="9">
-        <v>7</v>
-      </c>
-      <c r="E28" s="10">
-        <v>4</v>
-      </c>
-      <c r="F28" s="32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="27">
-        <v>25</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="29">
-        <v>8</v>
-      </c>
-      <c r="E29" s="30">
-        <v>3</v>
-      </c>
-      <c r="F29" s="35" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E30">
-        <f>SUM(E5:E29)</f>
-        <v>239</v>
+      <c r="F28" s="25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <f>SUM(E5:E28)</f>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
